--- a/output/Inventory.xlsx
+++ b/output/Inventory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="13755" windowHeight="10260"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="16995" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="2" r:id="rId1"/>
@@ -438,7 +438,8 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -451,14 +452,14 @@
         <v>25</v>
       </c>
       <c r="B2" s="2">
-        <v>7945869.4999999832</v>
+        <v>4478189.0699999835</v>
       </c>
       <c r="C2" s="2">
         <v>11916845.629999999</v>
       </c>
       <c r="D2" s="2">
         <f>C2-B2</f>
-        <v>3970976.1300000157</v>
+        <v>7438656.5600000154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -466,14 +467,14 @@
         <v>27</v>
       </c>
       <c r="B3" s="2">
-        <v>17210433.46999998</v>
+        <v>11017540.829999978</v>
       </c>
       <c r="C3" s="2">
         <v>16629788.029999999</v>
       </c>
       <c r="D3" s="2">
         <f>C3-B3</f>
-        <v>-580645.43999998085</v>
+        <v>5612247.2000000216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -481,14 +482,14 @@
         <v>34</v>
       </c>
       <c r="B4" s="2">
-        <v>4191951.5499999984</v>
+        <v>1074859.2899999986</v>
       </c>
       <c r="C4" s="2">
         <v>1074859.29</v>
       </c>
       <c r="D4" s="2">
         <f>C4-B4</f>
-        <v>-3117092.2599999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -496,14 +497,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>665721.28000000212</v>
+        <v>472056.90000000212</v>
       </c>
       <c r="C5" s="2">
         <v>472056.9</v>
       </c>
       <c r="D5" s="2">
         <f>C5-B5</f>
-        <v>-193664.3800000021</v>
+        <v>-2.0954757928848267E-9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -526,14 +527,14 @@
         <v>24</v>
       </c>
       <c r="B7" s="2">
-        <v>16695401.060000004</v>
+        <v>10332269.560000004</v>
       </c>
       <c r="C7" s="2">
         <v>13280334.85</v>
       </c>
       <c r="D7" s="2">
         <f>C7-B7</f>
-        <v>-3415066.2100000046</v>
+        <v>2948065.2899999954</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -676,14 +677,14 @@
         <v>9</v>
       </c>
       <c r="B17" s="2">
-        <v>3771987.93</v>
+        <v>3534317.2</v>
       </c>
       <c r="C17" s="2">
         <v>3534317.2</v>
       </c>
       <c r="D17" s="2">
         <f>C17-B17</f>
-        <v>-237670.72999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -766,20 +767,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="2">
-        <v>387192.46999998414</v>
+        <v>591964.77999998047</v>
       </c>
       <c r="C23" s="2">
         <v>591964.78</v>
       </c>
       <c r="D23" s="2">
         <f>C23-B23</f>
-        <v>204772.31000001589</v>
+        <v>1.9557774066925049E-8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D24" s="3">
         <f>SUM(D2:D23)</f>
-        <v>-3368390.5799999544</v>
+        <v>15998969.050000049</v>
       </c>
     </row>
   </sheetData>
